--- a/MarsQA-1/SpecflowTests/Data/Mars.xlsx
+++ b/MarsQA-1/SpecflowTests/Data/Mars.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\MarsProjectOnBoarding\MarsQA-1\SpecflowTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA4364-4CDB-445B-9425-FD0C5F0B2070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E352C241-A05A-480A-B728-BA92C6A59DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -32,6 +32,36 @@
   </si>
   <si>
     <t>Kanchi-2829</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>CollegeName</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Gujarat University College</t>
+  </si>
+  <si>
+    <t>Bachelor of Computer of Application</t>
+  </si>
+  <si>
+    <t>Master of Computer Application</t>
   </si>
 </sst>
 </file>
@@ -310,44 +340,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.25" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="26" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="6" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
